--- a/shelves.xlsx
+++ b/shelves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syrine Frini\Documents\VF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FE15FF-AAAE-4D34-B44B-73CC9E5248CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACB5AEE-E79F-4F08-AF57-DA491C1FB048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -399,7 +399,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -413,7 +413,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -427,7 +427,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -441,7 +441,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -483,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -497,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>5</v>
